--- a/java_workspace/ExcelFileReader/src/excel_files/safety/january.xlsx
+++ b/java_workspace/ExcelFileReader/src/excel_files/safety/january.xlsx
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-2809]dddd\,\ dd\ mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,14 +206,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill>
@@ -222,6 +225,55 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -264,202 +316,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,14 +1114,14 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="7"/>
-    <col min="2" max="2" width="28.5703125" style="1"/>
-    <col min="3" max="16384" width="28.5703125" style="2"/>
+    <col min="1" max="1" width="34.5703125" style="7"/>
+    <col min="2" max="2" width="34.5703125" style="1"/>
+    <col min="3" max="16384" width="34.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IF(B2=1,"Kein Unfall",IF(B2=2,"Fast Unfall","Unfall"))</f>
+        <f>IF(B2=1,"Kein Unfall",IF(B2=2,"Fast Unfall",IF(B2=3,"Unfall","-")))</f>
         <v>Kein Unfall</v>
       </c>
     </row>
@@ -1299,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C32" si="0">IF(B3=1,"Kein Unfall",IF(B3=2,"Fast Unfall","Unfall"))</f>
+        <f t="shared" ref="C3:C32" si="0">IF(B3=1,"Kein Unfall",IF(B3=2,"Fast Unfall",IF(B3=3,"Unfall","-")))</f>
         <v>Fast Unfall</v>
       </c>
     </row>
@@ -1644,23 +1500,23 @@
         <v>44592</v>
       </c>
       <c r="B32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Kein Unfall</v>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C32">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>3</formula>
+  <conditionalFormatting sqref="A2:C32">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$B2=3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>2</formula>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$B2=2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$B2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,24 +2950,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4546,24 +4402,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4845,13 +4701,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6285,24 +6141,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:N32 B2:B32">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C32">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7737,24 +7593,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9189,24 +9045,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10641,24 +10497,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12093,24 +11949,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13545,24 +13401,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14997,24 +14853,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16449,24 +16305,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17901,24 +17757,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N32">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
